--- a/public/assets/planilha_de_ramais.xlsx
+++ b/public/assets/planilha_de_ramais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafael.almeida\Desktop\ramais\lista-de-ramais\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6114309-9C15-47B9-9BC4-13A84F7FD9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E58B4C9-8534-49E6-9D7B-B63D5566A84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45DE8AC7-1F08-4348-9830-FFE096CC0B59}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
   <si>
     <t>Ana Villegas</t>
   </si>
@@ -391,6 +391,21 @@
   </si>
   <si>
     <t>https://i.postimg.cc/yYwj4ScN/Douglas-Pereira-Siqueira.png</t>
+  </si>
+  <si>
+    <t>Janildo Franco</t>
+  </si>
+  <si>
+    <t>Projetos</t>
+  </si>
+  <si>
+    <t>Projetista de Ferramentas</t>
+  </si>
+  <si>
+    <t>projetos@brasmol.com.br</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/dtH1L84q/Janildo-Franco-da-Costa.png</t>
   </si>
 </sst>
 </file>
@@ -753,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C900014C-14C8-4838-8849-A03641E53F4B}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,295 +1022,315 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="B13">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B14">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B15">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B17">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>61</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B18">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B19">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B20">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B21">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B22">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B23">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B24">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B26">
+        <v>130</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>100</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>145</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>101</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F27" xr:uid="{C900014C-14C8-4838-8849-A03641E53F4B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
       <sortCondition ref="A1:A27"/>
     </sortState>
   </autoFilter>
@@ -1317,37 +1352,39 @@
     <hyperlink ref="E11" r:id="rId15" xr:uid="{A902CE3A-637E-4997-B213-59454CD24F00}"/>
     <hyperlink ref="F12" r:id="rId16" xr:uid="{F4B32BFF-7F63-4A5E-BB74-3804F7009221}"/>
     <hyperlink ref="E12" r:id="rId17" xr:uid="{3F9C83B9-6D79-422D-B2AB-F82F425D6A1A}"/>
-    <hyperlink ref="F13" r:id="rId18" xr:uid="{1E5A1A7D-10CB-4A69-B3B7-5A96A58852E8}"/>
-    <hyperlink ref="E13" r:id="rId19" xr:uid="{2A1437AD-EB64-4D57-93DA-B8505C0A089D}"/>
-    <hyperlink ref="E14" r:id="rId20" xr:uid="{8C043714-3FA3-4036-9689-001EB3D08E5F}"/>
-    <hyperlink ref="F14" r:id="rId21" xr:uid="{1CBF6B7D-F8CC-414D-A08D-963F86FCF154}"/>
-    <hyperlink ref="F15" r:id="rId22" xr:uid="{DB962BA9-C20F-4D9C-9E3F-5B8FB8DB9C50}"/>
-    <hyperlink ref="E15" r:id="rId23" xr:uid="{56E1324E-1283-4C86-88C5-39D7C2E7E18E}"/>
-    <hyperlink ref="E16" r:id="rId24" xr:uid="{BABD07CA-AAE5-47FB-A114-CEDA897A3791}"/>
-    <hyperlink ref="F16" r:id="rId25" xr:uid="{A1DB2D97-442B-4024-83A5-DF60597BF134}"/>
-    <hyperlink ref="E18" r:id="rId26" xr:uid="{6C25687E-59DD-4AD8-8DED-B57E3370F478}"/>
-    <hyperlink ref="F18" r:id="rId27" xr:uid="{5EB6A491-6932-4244-80A6-8932A90C8C2D}"/>
-    <hyperlink ref="E19" r:id="rId28" xr:uid="{33C62798-3902-4381-AF7F-D52EA1735BDF}"/>
-    <hyperlink ref="F19" r:id="rId29" xr:uid="{5402F469-AAA0-47CE-98A3-3A3702BE2533}"/>
-    <hyperlink ref="E20" r:id="rId30" xr:uid="{F7001A1F-E6A6-4FF7-8229-1768BC34202A}"/>
-    <hyperlink ref="F20" r:id="rId31" xr:uid="{0E37CBC2-3F46-4C7D-BFCE-BA161B82EEEF}"/>
-    <hyperlink ref="E21" r:id="rId32" xr:uid="{3A614AC7-A418-4D05-9D6E-131F8051C85C}"/>
-    <hyperlink ref="F21" r:id="rId33" xr:uid="{305353EA-88E1-411A-AAED-D15872793A1B}"/>
-    <hyperlink ref="E22" r:id="rId34" xr:uid="{47750F49-BBBA-426E-9AEB-FAA74663AA50}"/>
-    <hyperlink ref="F22" r:id="rId35" xr:uid="{88D9947E-3193-40D4-B039-2D20AC904B8B}"/>
-    <hyperlink ref="F26" r:id="rId36" xr:uid="{572392B9-9359-4BD0-88A9-A54028FBA06C}"/>
-    <hyperlink ref="F17" r:id="rId37" xr:uid="{B3BEEF97-5FF4-4685-A32A-0560E55D99BD}"/>
-    <hyperlink ref="E23" r:id="rId38" xr:uid="{9872AE2B-7D2E-48FD-8144-246F095810A8}"/>
-    <hyperlink ref="F23" r:id="rId39" xr:uid="{971C9123-0B1A-44B1-9E93-EBCDB15BB1C3}"/>
-    <hyperlink ref="E24" r:id="rId40" xr:uid="{8FA3B366-19B9-4E84-9CA7-5FA310A37CD2}"/>
-    <hyperlink ref="F24" r:id="rId41" xr:uid="{F74AF90C-8DCA-48BE-A77E-6F7E8469AC4E}"/>
-    <hyperlink ref="E27" r:id="rId42" xr:uid="{B42644BC-A94C-467A-B0E6-611C15657B88}"/>
-    <hyperlink ref="F27" r:id="rId43" xr:uid="{F8B5C0C4-43CA-4BC2-BE06-EDA7909FECD4}"/>
-    <hyperlink ref="F25" r:id="rId44" xr:uid="{59EDB2A5-1A1E-4F75-BD5A-1081A001173D}"/>
+    <hyperlink ref="F14" r:id="rId18" xr:uid="{1E5A1A7D-10CB-4A69-B3B7-5A96A58852E8}"/>
+    <hyperlink ref="E14" r:id="rId19" xr:uid="{2A1437AD-EB64-4D57-93DA-B8505C0A089D}"/>
+    <hyperlink ref="E15" r:id="rId20" xr:uid="{8C043714-3FA3-4036-9689-001EB3D08E5F}"/>
+    <hyperlink ref="F15" r:id="rId21" xr:uid="{1CBF6B7D-F8CC-414D-A08D-963F86FCF154}"/>
+    <hyperlink ref="F16" r:id="rId22" xr:uid="{DB962BA9-C20F-4D9C-9E3F-5B8FB8DB9C50}"/>
+    <hyperlink ref="E16" r:id="rId23" xr:uid="{56E1324E-1283-4C86-88C5-39D7C2E7E18E}"/>
+    <hyperlink ref="E17" r:id="rId24" xr:uid="{BABD07CA-AAE5-47FB-A114-CEDA897A3791}"/>
+    <hyperlink ref="F17" r:id="rId25" xr:uid="{A1DB2D97-442B-4024-83A5-DF60597BF134}"/>
+    <hyperlink ref="E19" r:id="rId26" xr:uid="{6C25687E-59DD-4AD8-8DED-B57E3370F478}"/>
+    <hyperlink ref="F19" r:id="rId27" xr:uid="{5EB6A491-6932-4244-80A6-8932A90C8C2D}"/>
+    <hyperlink ref="E20" r:id="rId28" xr:uid="{33C62798-3902-4381-AF7F-D52EA1735BDF}"/>
+    <hyperlink ref="F20" r:id="rId29" xr:uid="{5402F469-AAA0-47CE-98A3-3A3702BE2533}"/>
+    <hyperlink ref="E21" r:id="rId30" xr:uid="{F7001A1F-E6A6-4FF7-8229-1768BC34202A}"/>
+    <hyperlink ref="F21" r:id="rId31" xr:uid="{0E37CBC2-3F46-4C7D-BFCE-BA161B82EEEF}"/>
+    <hyperlink ref="E22" r:id="rId32" xr:uid="{3A614AC7-A418-4D05-9D6E-131F8051C85C}"/>
+    <hyperlink ref="F22" r:id="rId33" xr:uid="{305353EA-88E1-411A-AAED-D15872793A1B}"/>
+    <hyperlink ref="E23" r:id="rId34" xr:uid="{47750F49-BBBA-426E-9AEB-FAA74663AA50}"/>
+    <hyperlink ref="F23" r:id="rId35" xr:uid="{88D9947E-3193-40D4-B039-2D20AC904B8B}"/>
+    <hyperlink ref="F27" r:id="rId36" xr:uid="{572392B9-9359-4BD0-88A9-A54028FBA06C}"/>
+    <hyperlink ref="F18" r:id="rId37" xr:uid="{B3BEEF97-5FF4-4685-A32A-0560E55D99BD}"/>
+    <hyperlink ref="E24" r:id="rId38" xr:uid="{9872AE2B-7D2E-48FD-8144-246F095810A8}"/>
+    <hyperlink ref="F24" r:id="rId39" xr:uid="{971C9123-0B1A-44B1-9E93-EBCDB15BB1C3}"/>
+    <hyperlink ref="E25" r:id="rId40" xr:uid="{8FA3B366-19B9-4E84-9CA7-5FA310A37CD2}"/>
+    <hyperlink ref="F25" r:id="rId41" xr:uid="{F74AF90C-8DCA-48BE-A77E-6F7E8469AC4E}"/>
+    <hyperlink ref="E28" r:id="rId42" xr:uid="{B42644BC-A94C-467A-B0E6-611C15657B88}"/>
+    <hyperlink ref="F28" r:id="rId43" xr:uid="{F8B5C0C4-43CA-4BC2-BE06-EDA7909FECD4}"/>
+    <hyperlink ref="F26" r:id="rId44" xr:uid="{59EDB2A5-1A1E-4F75-BD5A-1081A001173D}"/>
     <hyperlink ref="E2" r:id="rId45" xr:uid="{79578A44-1938-4C7E-988B-EFB98C810BD5}"/>
     <hyperlink ref="F2" r:id="rId46" xr:uid="{00ECDD57-2540-4FA1-A381-08FF55FA83EF}"/>
     <hyperlink ref="E7" r:id="rId47" xr:uid="{C114CFCC-6D82-413F-819F-1EDA67E0910A}"/>
     <hyperlink ref="F7" r:id="rId48" xr:uid="{A484D214-DAC7-4BD3-B31F-0750843CF374}"/>
+    <hyperlink ref="E13" r:id="rId49" xr:uid="{DDA1AF5D-ACDF-433A-8BD3-4D814E2618E0}"/>
+    <hyperlink ref="F13" r:id="rId50" xr:uid="{26F222F3-E8B4-4247-A004-06C0FE1AC086}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/public/assets/planilha_de_ramais.xlsx
+++ b/public/assets/planilha_de_ramais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafael.almeida\Desktop\ramais\lista-de-ramais\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E58B4C9-8534-49E6-9D7B-B63D5566A84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDB587C-CA57-4898-9D93-994C96BD8038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45DE8AC7-1F08-4348-9830-FFE096CC0B59}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
   <si>
     <t>Ana Villegas</t>
   </si>
@@ -189,12 +189,6 @@
     <t>Liliane Souza</t>
   </si>
   <si>
-    <t>Comercial / Faturamento</t>
-  </si>
-  <si>
-    <t>Assistente Comercial</t>
-  </si>
-  <si>
     <t>liliane.souza@brasmol.com.br</t>
   </si>
   <si>
@@ -216,21 +210,12 @@
     <t>Analista Técnico</t>
   </si>
   <si>
-    <t>Mauricio Araujo</t>
-  </si>
-  <si>
     <t>Compras</t>
   </si>
   <si>
     <t>Comprador</t>
   </si>
   <si>
-    <t>mauricio.araujo@brasmol.com.br</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/ZYpvcCpN/Mauricio-Araujo-Figueredo.jpg</t>
-  </si>
-  <si>
     <t>Nordon Jose</t>
   </si>
   <si>
@@ -406,6 +391,18 @@
   </si>
   <si>
     <t>https://i.postimg.cc/dtH1L84q/Janildo-Franco-da-Costa.png</t>
+  </si>
+  <si>
+    <t>Gustavo Onofre</t>
+  </si>
+  <si>
+    <t>gustavo.onofre@brasmol.com.br</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/fb3zX5Wr/54462329-2023386377772706-632683506295635968-n-removebg-preview.png</t>
+  </si>
+  <si>
+    <t>Compradora</t>
   </si>
 </sst>
 </file>
@@ -771,7 +768,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,42 +782,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B2">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -905,22 +902,22 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B7">
         <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -928,7 +925,7 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -1002,144 +999,144 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B12">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="B13">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B14">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B15">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="B16">
+      <c r="D16" t="s">
         <v>121</v>
       </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B18">
         <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>131</v>
@@ -1148,78 +1145,78 @@
         <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B20">
         <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B21">
         <v>135</v>
       </c>
       <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
         <v>56</v>
       </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B22">
         <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B23">
         <v>118</v>
@@ -1228,38 +1225,38 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B25">
         <v>147</v>
@@ -1268,64 +1265,64 @@
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B26">
         <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B27">
         <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B28">
         <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1350,41 +1347,41 @@
     <hyperlink ref="F10" r:id="rId13" xr:uid="{E09195E1-1C24-462C-B879-81B1F2B2AD46}"/>
     <hyperlink ref="F11" r:id="rId14" xr:uid="{1C19DA5E-F4EC-4AB5-82A6-F6324DA88C6F}"/>
     <hyperlink ref="E11" r:id="rId15" xr:uid="{A902CE3A-637E-4997-B213-59454CD24F00}"/>
-    <hyperlink ref="F12" r:id="rId16" xr:uid="{F4B32BFF-7F63-4A5E-BB74-3804F7009221}"/>
-    <hyperlink ref="E12" r:id="rId17" xr:uid="{3F9C83B9-6D79-422D-B2AB-F82F425D6A1A}"/>
-    <hyperlink ref="F14" r:id="rId18" xr:uid="{1E5A1A7D-10CB-4A69-B3B7-5A96A58852E8}"/>
-    <hyperlink ref="E14" r:id="rId19" xr:uid="{2A1437AD-EB64-4D57-93DA-B8505C0A089D}"/>
-    <hyperlink ref="E15" r:id="rId20" xr:uid="{8C043714-3FA3-4036-9689-001EB3D08E5F}"/>
-    <hyperlink ref="F15" r:id="rId21" xr:uid="{1CBF6B7D-F8CC-414D-A08D-963F86FCF154}"/>
-    <hyperlink ref="F16" r:id="rId22" xr:uid="{DB962BA9-C20F-4D9C-9E3F-5B8FB8DB9C50}"/>
-    <hyperlink ref="E16" r:id="rId23" xr:uid="{56E1324E-1283-4C86-88C5-39D7C2E7E18E}"/>
-    <hyperlink ref="E17" r:id="rId24" xr:uid="{BABD07CA-AAE5-47FB-A114-CEDA897A3791}"/>
-    <hyperlink ref="F17" r:id="rId25" xr:uid="{A1DB2D97-442B-4024-83A5-DF60597BF134}"/>
-    <hyperlink ref="E19" r:id="rId26" xr:uid="{6C25687E-59DD-4AD8-8DED-B57E3370F478}"/>
-    <hyperlink ref="F19" r:id="rId27" xr:uid="{5EB6A491-6932-4244-80A6-8932A90C8C2D}"/>
-    <hyperlink ref="E20" r:id="rId28" xr:uid="{33C62798-3902-4381-AF7F-D52EA1735BDF}"/>
-    <hyperlink ref="F20" r:id="rId29" xr:uid="{5402F469-AAA0-47CE-98A3-3A3702BE2533}"/>
-    <hyperlink ref="E21" r:id="rId30" xr:uid="{F7001A1F-E6A6-4FF7-8229-1768BC34202A}"/>
-    <hyperlink ref="F21" r:id="rId31" xr:uid="{0E37CBC2-3F46-4C7D-BFCE-BA161B82EEEF}"/>
-    <hyperlink ref="E22" r:id="rId32" xr:uid="{3A614AC7-A418-4D05-9D6E-131F8051C85C}"/>
-    <hyperlink ref="F22" r:id="rId33" xr:uid="{305353EA-88E1-411A-AAED-D15872793A1B}"/>
-    <hyperlink ref="E23" r:id="rId34" xr:uid="{47750F49-BBBA-426E-9AEB-FAA74663AA50}"/>
-    <hyperlink ref="F23" r:id="rId35" xr:uid="{88D9947E-3193-40D4-B039-2D20AC904B8B}"/>
-    <hyperlink ref="F27" r:id="rId36" xr:uid="{572392B9-9359-4BD0-88A9-A54028FBA06C}"/>
-    <hyperlink ref="F18" r:id="rId37" xr:uid="{B3BEEF97-5FF4-4685-A32A-0560E55D99BD}"/>
-    <hyperlink ref="E24" r:id="rId38" xr:uid="{9872AE2B-7D2E-48FD-8144-246F095810A8}"/>
-    <hyperlink ref="F24" r:id="rId39" xr:uid="{971C9123-0B1A-44B1-9E93-EBCDB15BB1C3}"/>
-    <hyperlink ref="E25" r:id="rId40" xr:uid="{8FA3B366-19B9-4E84-9CA7-5FA310A37CD2}"/>
-    <hyperlink ref="F25" r:id="rId41" xr:uid="{F74AF90C-8DCA-48BE-A77E-6F7E8469AC4E}"/>
-    <hyperlink ref="E28" r:id="rId42" xr:uid="{B42644BC-A94C-467A-B0E6-611C15657B88}"/>
-    <hyperlink ref="F28" r:id="rId43" xr:uid="{F8B5C0C4-43CA-4BC2-BE06-EDA7909FECD4}"/>
-    <hyperlink ref="F26" r:id="rId44" xr:uid="{59EDB2A5-1A1E-4F75-BD5A-1081A001173D}"/>
-    <hyperlink ref="E2" r:id="rId45" xr:uid="{79578A44-1938-4C7E-988B-EFB98C810BD5}"/>
-    <hyperlink ref="F2" r:id="rId46" xr:uid="{00ECDD57-2540-4FA1-A381-08FF55FA83EF}"/>
-    <hyperlink ref="E7" r:id="rId47" xr:uid="{C114CFCC-6D82-413F-819F-1EDA67E0910A}"/>
-    <hyperlink ref="F7" r:id="rId48" xr:uid="{A484D214-DAC7-4BD3-B31F-0750843CF374}"/>
-    <hyperlink ref="E13" r:id="rId49" xr:uid="{DDA1AF5D-ACDF-433A-8BD3-4D814E2618E0}"/>
-    <hyperlink ref="F13" r:id="rId50" xr:uid="{26F222F3-E8B4-4247-A004-06C0FE1AC086}"/>
+    <hyperlink ref="F13" r:id="rId16" xr:uid="{F4B32BFF-7F63-4A5E-BB74-3804F7009221}"/>
+    <hyperlink ref="E13" r:id="rId17" xr:uid="{3F9C83B9-6D79-422D-B2AB-F82F425D6A1A}"/>
+    <hyperlink ref="F15" r:id="rId18" xr:uid="{1E5A1A7D-10CB-4A69-B3B7-5A96A58852E8}"/>
+    <hyperlink ref="E15" r:id="rId19" xr:uid="{2A1437AD-EB64-4D57-93DA-B8505C0A089D}"/>
+    <hyperlink ref="E16" r:id="rId20" xr:uid="{8C043714-3FA3-4036-9689-001EB3D08E5F}"/>
+    <hyperlink ref="F16" r:id="rId21" xr:uid="{1CBF6B7D-F8CC-414D-A08D-963F86FCF154}"/>
+    <hyperlink ref="F17" r:id="rId22" xr:uid="{DB962BA9-C20F-4D9C-9E3F-5B8FB8DB9C50}"/>
+    <hyperlink ref="E17" r:id="rId23" xr:uid="{56E1324E-1283-4C86-88C5-39D7C2E7E18E}"/>
+    <hyperlink ref="E19" r:id="rId24" xr:uid="{6C25687E-59DD-4AD8-8DED-B57E3370F478}"/>
+    <hyperlink ref="F19" r:id="rId25" xr:uid="{5EB6A491-6932-4244-80A6-8932A90C8C2D}"/>
+    <hyperlink ref="E20" r:id="rId26" xr:uid="{33C62798-3902-4381-AF7F-D52EA1735BDF}"/>
+    <hyperlink ref="F20" r:id="rId27" xr:uid="{5402F469-AAA0-47CE-98A3-3A3702BE2533}"/>
+    <hyperlink ref="E21" r:id="rId28" xr:uid="{F7001A1F-E6A6-4FF7-8229-1768BC34202A}"/>
+    <hyperlink ref="F21" r:id="rId29" xr:uid="{0E37CBC2-3F46-4C7D-BFCE-BA161B82EEEF}"/>
+    <hyperlink ref="E22" r:id="rId30" xr:uid="{3A614AC7-A418-4D05-9D6E-131F8051C85C}"/>
+    <hyperlink ref="F22" r:id="rId31" xr:uid="{305353EA-88E1-411A-AAED-D15872793A1B}"/>
+    <hyperlink ref="E23" r:id="rId32" xr:uid="{47750F49-BBBA-426E-9AEB-FAA74663AA50}"/>
+    <hyperlink ref="F23" r:id="rId33" xr:uid="{88D9947E-3193-40D4-B039-2D20AC904B8B}"/>
+    <hyperlink ref="F27" r:id="rId34" xr:uid="{572392B9-9359-4BD0-88A9-A54028FBA06C}"/>
+    <hyperlink ref="F18" r:id="rId35" xr:uid="{B3BEEF97-5FF4-4685-A32A-0560E55D99BD}"/>
+    <hyperlink ref="E24" r:id="rId36" xr:uid="{9872AE2B-7D2E-48FD-8144-246F095810A8}"/>
+    <hyperlink ref="F24" r:id="rId37" xr:uid="{971C9123-0B1A-44B1-9E93-EBCDB15BB1C3}"/>
+    <hyperlink ref="E25" r:id="rId38" xr:uid="{8FA3B366-19B9-4E84-9CA7-5FA310A37CD2}"/>
+    <hyperlink ref="F25" r:id="rId39" xr:uid="{F74AF90C-8DCA-48BE-A77E-6F7E8469AC4E}"/>
+    <hyperlink ref="E28" r:id="rId40" xr:uid="{B42644BC-A94C-467A-B0E6-611C15657B88}"/>
+    <hyperlink ref="F28" r:id="rId41" xr:uid="{F8B5C0C4-43CA-4BC2-BE06-EDA7909FECD4}"/>
+    <hyperlink ref="F26" r:id="rId42" xr:uid="{59EDB2A5-1A1E-4F75-BD5A-1081A001173D}"/>
+    <hyperlink ref="E2" r:id="rId43" xr:uid="{79578A44-1938-4C7E-988B-EFB98C810BD5}"/>
+    <hyperlink ref="F2" r:id="rId44" xr:uid="{00ECDD57-2540-4FA1-A381-08FF55FA83EF}"/>
+    <hyperlink ref="E7" r:id="rId45" xr:uid="{C114CFCC-6D82-413F-819F-1EDA67E0910A}"/>
+    <hyperlink ref="F7" r:id="rId46" xr:uid="{A484D214-DAC7-4BD3-B31F-0750843CF374}"/>
+    <hyperlink ref="E14" r:id="rId47" xr:uid="{DDA1AF5D-ACDF-433A-8BD3-4D814E2618E0}"/>
+    <hyperlink ref="F14" r:id="rId48" xr:uid="{26F222F3-E8B4-4247-A004-06C0FE1AC086}"/>
+    <hyperlink ref="E12" r:id="rId49" xr:uid="{BD6AB108-0343-4A71-9809-30B5EDCEEC69}"/>
+    <hyperlink ref="F12" r:id="rId50" xr:uid="{B0B85B43-52EE-4D1C-AF35-66EA10DE5D3B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/public/assets/planilha_de_ramais.xlsx
+++ b/public/assets/planilha_de_ramais.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafael.almeida\Desktop\ramais\lista-de-ramais\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDB587C-CA57-4898-9D93-994C96BD8038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D876E4-9234-4117-B2FB-D2AC0FCC2C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45DE8AC7-1F08-4348-9830-FFE096CC0B59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{45DE8AC7-1F08-4348-9830-FFE096CC0B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -213,9 +213,6 @@
     <t>Compras</t>
   </si>
   <si>
-    <t>Comprador</t>
-  </si>
-  <si>
     <t>Nordon Jose</t>
   </si>
   <si>
@@ -393,16 +390,19 @@
     <t>https://i.postimg.cc/dtH1L84q/Janildo-Franco-da-Costa.png</t>
   </si>
   <si>
-    <t>Gustavo Onofre</t>
-  </si>
-  <si>
-    <t>gustavo.onofre@brasmol.com.br</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/fb3zX5Wr/54462329-2023386377772706-632683506295635968-n-removebg-preview.png</t>
-  </si>
-  <si>
     <t>Compradora</t>
+  </si>
+  <si>
+    <t>Elaine Alves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistente Comercial </t>
+  </si>
+  <si>
+    <t>elaine.alves@brasmol.com.br</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/wB1VDBHP/file-2.png</t>
   </si>
 </sst>
 </file>
@@ -768,7 +768,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,42 +782,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>103</v>
-      </c>
-      <c r="F1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -902,22 +902,22 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -942,79 +942,79 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="B9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>119</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="B12">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1039,22 +1039,22 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14">
         <v>120</v>
       </c>
       <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
         <v>114</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1088,7 +1088,7 @@
         <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>50</v>
@@ -1119,24 +1119,24 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18">
         <v>111</v>
       </c>
       <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
         <v>81</v>
       </c>
-      <c r="D18" t="s">
-        <v>82</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>131</v>
@@ -1145,38 +1145,38 @@
         <v>35</v>
       </c>
       <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20">
         <v>114</v>
       </c>
       <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
         <v>64</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21">
         <v>135</v>
@@ -1188,35 +1188,35 @@
         <v>56</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>117</v>
       </c>
       <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
         <v>72</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>118</v>
@@ -1225,38 +1225,38 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24">
         <v>139</v>
       </c>
       <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
         <v>87</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25">
         <v>147</v>
@@ -1265,70 +1265,70 @@
         <v>35</v>
       </c>
       <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26">
         <v>130</v>
       </c>
       <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27">
         <v>111</v>
       </c>
       <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
         <v>81</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28">
         <v>145</v>
       </c>
       <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
         <v>96</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>99</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F27" xr:uid="{C900014C-14C8-4838-8849-A03641E53F4B}">
+  <autoFilter ref="A1:F26" xr:uid="{C900014C-14C8-4838-8849-A03641E53F4B}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
-      <sortCondition ref="A1:A27"/>
+      <sortCondition ref="A1:A26"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -1338,15 +1338,15 @@
     <hyperlink ref="F4" r:id="rId4" xr:uid="{38097E97-2058-4E0E-9D08-A2EABD4C7D54}"/>
     <hyperlink ref="E5" r:id="rId5" xr:uid="{97820ED1-887A-4D19-85CC-BE51457E70B1}"/>
     <hyperlink ref="F5" r:id="rId6" xr:uid="{EDD40362-5662-4ED9-9862-E57C0BFF7BB4}"/>
-    <hyperlink ref="F9" r:id="rId7" xr:uid="{0506CF56-690F-4390-B6C4-241DBEF741D8}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{0506CF56-690F-4390-B6C4-241DBEF741D8}"/>
     <hyperlink ref="E6" r:id="rId8" xr:uid="{92283AD9-E1E7-4611-B033-7633690F6195}"/>
     <hyperlink ref="F6" r:id="rId9" xr:uid="{C00891E6-9964-4EAE-88A0-073267DB01EB}"/>
     <hyperlink ref="E8" r:id="rId10" xr:uid="{3E5CF3F8-A12D-441E-A7EA-E24ACBAE0D10}"/>
     <hyperlink ref="F8" r:id="rId11" xr:uid="{C2FDF182-A219-48C0-8A97-93DE0A0C1C17}"/>
-    <hyperlink ref="E10" r:id="rId12" xr:uid="{5564ABD7-FC27-479C-9234-BB04AAFDE1CC}"/>
-    <hyperlink ref="F10" r:id="rId13" xr:uid="{E09195E1-1C24-462C-B879-81B1F2B2AD46}"/>
-    <hyperlink ref="F11" r:id="rId14" xr:uid="{1C19DA5E-F4EC-4AB5-82A6-F6324DA88C6F}"/>
-    <hyperlink ref="E11" r:id="rId15" xr:uid="{A902CE3A-637E-4997-B213-59454CD24F00}"/>
+    <hyperlink ref="E11" r:id="rId12" xr:uid="{5564ABD7-FC27-479C-9234-BB04AAFDE1CC}"/>
+    <hyperlink ref="F11" r:id="rId13" xr:uid="{E09195E1-1C24-462C-B879-81B1F2B2AD46}"/>
+    <hyperlink ref="F12" r:id="rId14" xr:uid="{1C19DA5E-F4EC-4AB5-82A6-F6324DA88C6F}"/>
+    <hyperlink ref="E12" r:id="rId15" xr:uid="{A902CE3A-637E-4997-B213-59454CD24F00}"/>
     <hyperlink ref="F13" r:id="rId16" xr:uid="{F4B32BFF-7F63-4A5E-BB74-3804F7009221}"/>
     <hyperlink ref="E13" r:id="rId17" xr:uid="{3F9C83B9-6D79-422D-B2AB-F82F425D6A1A}"/>
     <hyperlink ref="F15" r:id="rId18" xr:uid="{1E5A1A7D-10CB-4A69-B3B7-5A96A58852E8}"/>
@@ -1380,8 +1380,8 @@
     <hyperlink ref="F7" r:id="rId46" xr:uid="{A484D214-DAC7-4BD3-B31F-0750843CF374}"/>
     <hyperlink ref="E14" r:id="rId47" xr:uid="{DDA1AF5D-ACDF-433A-8BD3-4D814E2618E0}"/>
     <hyperlink ref="F14" r:id="rId48" xr:uid="{26F222F3-E8B4-4247-A004-06C0FE1AC086}"/>
-    <hyperlink ref="E12" r:id="rId49" xr:uid="{BD6AB108-0343-4A71-9809-30B5EDCEEC69}"/>
-    <hyperlink ref="F12" r:id="rId50" xr:uid="{B0B85B43-52EE-4D1C-AF35-66EA10DE5D3B}"/>
+    <hyperlink ref="E9" r:id="rId49" xr:uid="{91A7B212-F61A-4001-8B0E-4D95918FCF47}"/>
+    <hyperlink ref="F9" r:id="rId50" xr:uid="{487A1BAA-2AB3-44FE-B188-20C6D73F4F34}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/public/assets/planilha_de_ramais.xlsx
+++ b/public/assets/planilha_de_ramais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafael.almeida\Desktop\ramais\lista-de-ramais\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D876E4-9234-4117-B2FB-D2AC0FCC2C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0BC1D1-B214-48F1-AC00-28B679098213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{45DE8AC7-1F08-4348-9830-FFE096CC0B59}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45DE8AC7-1F08-4348-9830-FFE096CC0B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="121">
   <si>
     <t>Ana Villegas</t>
   </si>
@@ -375,21 +375,12 @@
     <t>https://i.postimg.cc/yYwj4ScN/Douglas-Pereira-Siqueira.png</t>
   </si>
   <si>
-    <t>Janildo Franco</t>
-  </si>
-  <si>
     <t>Projetos</t>
   </si>
   <si>
     <t>Projetista de Ferramentas</t>
   </si>
   <si>
-    <t>projetos@brasmol.com.br</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/dtH1L84q/Janildo-Franco-da-Costa.png</t>
-  </si>
-  <si>
     <t>Compradora</t>
   </si>
   <si>
@@ -403,6 +394,12 @@
   </si>
   <si>
     <t>https://i.postimg.cc/wB1VDBHP/file-2.png</t>
+  </si>
+  <si>
+    <t>Eduardo Mattoso</t>
+  </si>
+  <si>
+    <t>eduardo.mattoso@brasmol.com.br</t>
   </si>
 </sst>
 </file>
@@ -768,7 +765,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +939,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B9">
         <v>126</v>
@@ -951,13 +948,13 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1039,23 +1036,21 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B14">
         <v>120</v>
       </c>
       <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
         <v>113</v>
       </c>
-      <c r="D14" t="s">
-        <v>114</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1088,7 +1083,7 @@
         <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>50</v>
@@ -1379,9 +1374,8 @@
     <hyperlink ref="E7" r:id="rId45" xr:uid="{C114CFCC-6D82-413F-819F-1EDA67E0910A}"/>
     <hyperlink ref="F7" r:id="rId46" xr:uid="{A484D214-DAC7-4BD3-B31F-0750843CF374}"/>
     <hyperlink ref="E14" r:id="rId47" xr:uid="{DDA1AF5D-ACDF-433A-8BD3-4D814E2618E0}"/>
-    <hyperlink ref="F14" r:id="rId48" xr:uid="{26F222F3-E8B4-4247-A004-06C0FE1AC086}"/>
-    <hyperlink ref="E9" r:id="rId49" xr:uid="{91A7B212-F61A-4001-8B0E-4D95918FCF47}"/>
-    <hyperlink ref="F9" r:id="rId50" xr:uid="{487A1BAA-2AB3-44FE-B188-20C6D73F4F34}"/>
+    <hyperlink ref="E9" r:id="rId48" xr:uid="{91A7B212-F61A-4001-8B0E-4D95918FCF47}"/>
+    <hyperlink ref="F9" r:id="rId49" xr:uid="{487A1BAA-2AB3-44FE-B188-20C6D73F4F34}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/public/assets/planilha_de_ramais.xlsx
+++ b/public/assets/planilha_de_ramais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafael.almeida\Desktop\ramais\lista-de-ramais\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0BC1D1-B214-48F1-AC00-28B679098213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C1F545-5898-4660-BB0A-E992A9D717DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45DE8AC7-1F08-4348-9830-FFE096CC0B59}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="131">
   <si>
     <t>Ana Villegas</t>
   </si>
@@ -63,9 +63,6 @@
     <t xml:space="preserve">Gestão da Qualidade </t>
   </si>
   <si>
-    <t>Supervisor da Gestão da Qualidade</t>
-  </si>
-  <si>
     <t>anderson.goveia@brasmol.com.br</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Cozinha / Limpeza</t>
   </si>
   <si>
-    <t>Auxiliar e Serviços Gerais</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/ydTP2k9L/Filomena-Martins-Pereira.jpg</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t>Marcio Mario</t>
   </si>
   <si>
-    <t>Analista Técnico</t>
-  </si>
-  <si>
     <t>Compras</t>
   </si>
   <si>
@@ -327,9 +318,6 @@
     <t>Controle de Qualidade</t>
   </si>
   <si>
-    <t>Inspetor de Qualidade</t>
-  </si>
-  <si>
     <t>controle@brasmol.com.br</t>
   </si>
   <si>
@@ -363,9 +351,6 @@
     <t xml:space="preserve">	Aiume Freitas</t>
   </si>
   <si>
-    <t>Auxiliar de Produção</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/B6qN79Dc/Aiume-Freitas-Ferreira.png</t>
   </si>
   <si>
@@ -381,9 +366,6 @@
     <t>Projetista de Ferramentas</t>
   </si>
   <si>
-    <t>Compradora</t>
-  </si>
-  <si>
     <t>Elaine Alves</t>
   </si>
   <si>
@@ -400,13 +382,69 @@
   </si>
   <si>
     <t>eduardo.mattoso@brasmol.com.br</t>
+  </si>
+  <si>
+    <t>Auxiliar de Controle de Qualidade</t>
+  </si>
+  <si>
+    <t>Coordenador da Gestão de Qualidade</t>
+  </si>
+  <si>
+    <t>Almoxarife JR</t>
+  </si>
+  <si>
+    <t>Copeira</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/KjHY8JXQ/Eduardo-Mattozo.jpg</t>
+  </si>
+  <si>
+    <t>Compradora JR</t>
+  </si>
+  <si>
+    <t>Analista Técnico de Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Inspetor de Qualidade Senior</t>
+  </si>
+  <si>
+    <t>linkedin</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dealmeidasilva/</t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t>Profissional com mais de 15 anos de experiência na área de tecnologia da informação, atuando principalmente como Supervisor de TI. Com uma sólida formação em Redes de Computadores e atualmente cursando Engenharia da Computação, possui vasta experiência em gestão de equipes, implementação de infraestrutura de TI e automação de processos.
+Ao longo da sua carreira, se destacou por liderar projetos de transformação digital, redução de custos e melhoria contínua, sempre com foco em inovação e eficiência operacional.
+Atualmente, está aprofundando seus conhecimentos em metodologias ágeis e frameworks como Scrum e Kanban, com o objetivo de aprimorar ainda mais suas habilidades em gestão de projetos e processos.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/goveia-lacerda-03637248/</t>
+  </si>
+  <si>
+    <t>Profissional com mais de 15 anos de experiência na área de gestão da qualidade, tendo recentemente atuando como Coordenador do Sistema de Gestão da Qualidade. Com formação em Tecnologia de Gestão da Qualidade, possui uma sólida experiência na implementação de sistemas de qualidade baseados nas normas ISO 9001 e IATF 16949, garantindo a conformidade e a excelência nos processos produtivos.
+Ao longo de sua carreira, destacou-se por liderar projetos de homologação e qualificação de fornecedores, mapeamento de processos, e controle de indicadores de desempenho de qualidade, sempre focado em alcançar melhorias contínuas e satisfação dos clientes.
+Atualmente, está à frente do sistema de gestão da qualidade da empresa, onde lidera auditorias internas e externas, além de promover a capacitação da equipe para manter altos padrões de qualidade. Seu foco contínuo está na implementação de melhorias nos processos operacionais e na inovação das ferramentas de controle de qualidade.</t>
+  </si>
+  <si>
+    <t>É uma profissional com vasta experiência na área de produção industrial, tendo recentemente sido promovido do setor de Acabamento para o Controle de Qualidade, onde tem desempenhado um papel crucial na melhoria dos processos de controle de qualidade.
+Formado em Metrologia pelo SENAI, Aiume possui habilidades sólidas no manuseio de instrumentos de medição de alta precisão, como paquímetros, micrômetros e relógios comparadores. Essa formação técnica é fundamental para garantir a qualidade dos produtos e a conformidade com as normas técnicas.
+Ao longo da sua carreira, tem se destacado pela atenção aos detalhes e pela capacidade de adaptação em novos desafios, com um foco contínuo em assegurar que todos os processos estejam dentro dos mais altos padrões de qualidade.
+Atualmente, ele está se aprofundando em metodologias de controle de qualidade e ferramentas de medição avançada, trazendo inovação e excelência para a empresa.</t>
+  </si>
+  <si>
+    <t>Profissional com mais de 5 anos de experiência em setores operacionais, com uma sólida trajetória que abrange cargos de Atendente, Auxiliar Geral e, mais recentemente, Almoxarife Jr. Após atuar no setor de Expedição, onde desenvolveu habilidades logísticas e operacionais, Christopher foi promovido para o Almoxarifado, assumindo responsabilidades mais complexas na organização e controle de estoque.
+Atualmente, está se aprofundando nas rotinas do almoxarifado, onde utiliza suas competências em controle de estoque para garantir a disponibilidade e organização dos materiais.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +456,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,9 +490,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -762,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C900014C-14C8-4838-8849-A03641E53F4B}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,49 +840,60 @@
     <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="88.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>145</v>
       </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -837,49 +913,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>137</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="3">
+        <v>132</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>132</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>140</v>
@@ -888,330 +973,334 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B7">
         <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>115</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B9">
         <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>127</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>115</v>
       </c>
       <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>32</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
       </c>
       <c r="B12">
         <v>141</v>
       </c>
       <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>39</v>
       </c>
       <c r="B13">
         <v>154</v>
       </c>
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B14">
         <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>113</v>
       </c>
       <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>49</v>
       </c>
       <c r="B16">
         <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>59</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>62</v>
       </c>
       <c r="B20">
         <v>114</v>
       </c>
       <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>64</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>67</v>
       </c>
       <c r="B21">
         <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22">
         <v>117</v>
       </c>
       <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>72</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>75</v>
       </c>
       <c r="B23">
         <v>118</v>
@@ -1220,104 +1309,110 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="3">
+        <v>139</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B24">
-        <v>139</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="F24" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>87</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>90</v>
       </c>
       <c r="B25">
         <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B26">
         <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B27">
         <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B28">
         <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1376,6 +1471,9 @@
     <hyperlink ref="E14" r:id="rId47" xr:uid="{DDA1AF5D-ACDF-433A-8BD3-4D814E2618E0}"/>
     <hyperlink ref="E9" r:id="rId48" xr:uid="{91A7B212-F61A-4001-8B0E-4D95918FCF47}"/>
     <hyperlink ref="F9" r:id="rId49" xr:uid="{487A1BAA-2AB3-44FE-B188-20C6D73F4F34}"/>
+    <hyperlink ref="F14" r:id="rId50" xr:uid="{8DAD4A55-75BE-4828-8D8B-D161768AF528}"/>
+    <hyperlink ref="G24" r:id="rId51" xr:uid="{F2C9DC16-5A15-40AB-AEB3-E617128F4E75}"/>
+    <hyperlink ref="G4" r:id="rId52" xr:uid="{4F1ACAF8-C7AB-4BB6-A462-96C6CB5B23DD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/public/assets/planilha_de_ramais.xlsx
+++ b/public/assets/planilha_de_ramais.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafael.almeida\Desktop\ramais\lista-de-ramais\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C1F545-5898-4660-BB0A-E992A9D717DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4CECC0-E887-4610-9571-8EFE999D35A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45DE8AC7-1F08-4348-9830-FFE096CC0B59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45DE8AC7-1F08-4348-9830-FFE096CC0B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="139">
   <si>
     <t>Ana Villegas</t>
   </si>
@@ -279,12 +279,6 @@
     <t>https://i.postimg.cc/hvLTGJzM/Foto.png</t>
   </si>
   <si>
-    <t>Nivaldo Donizeti</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/x85r38D1/Foto.jpg</t>
-  </si>
-  <si>
     <t>Rafael Almeida</t>
   </si>
   <si>
@@ -351,9 +345,6 @@
     <t xml:space="preserve">	Aiume Freitas</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/B6qN79Dc/Aiume-Freitas-Ferreira.png</t>
-  </si>
-  <si>
     <t>Douglas Pereira</t>
   </si>
   <si>
@@ -415,11 +406,6 @@
   </si>
   <si>
     <t>descricao</t>
-  </si>
-  <si>
-    <t>Profissional com mais de 15 anos de experiência na área de tecnologia da informação, atuando principalmente como Supervisor de TI. Com uma sólida formação em Redes de Computadores e atualmente cursando Engenharia da Computação, possui vasta experiência em gestão de equipes, implementação de infraestrutura de TI e automação de processos.
-Ao longo da sua carreira, se destacou por liderar projetos de transformação digital, redução de custos e melhoria contínua, sempre com foco em inovação e eficiência operacional.
-Atualmente, está aprofundando seus conhecimentos em metodologias ágeis e frameworks como Scrum e Kanban, com o objetivo de aprimorar ainda mais suas habilidades em gestão de projetos e processos.</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/goveia-lacerda-03637248/</t>
@@ -430,14 +416,96 @@
 Atualmente, está à frente do sistema de gestão da qualidade da empresa, onde lidera auditorias internas e externas, além de promover a capacitação da equipe para manter altos padrões de qualidade. Seu foco contínuo está na implementação de melhorias nos processos operacionais e na inovação das ferramentas de controle de qualidade.</t>
   </si>
   <si>
+    <t>Profissional com mais de 5 anos de experiência em setores operacionais, com uma sólida trajetória que abrange cargos de Atendente, Auxiliar Geral e, mais recentemente, Almoxarife Jr. Após atuar no setor de Expedição, onde desenvolveu habilidades logísticas e operacionais, Christopher foi promovido para o Almoxarifado, assumindo responsabilidades mais complexas na organização e controle de estoque.
+Atualmente, está se aprofundando nas rotinas do almoxarifado, onde utiliza suas competências em controle de estoque para garantir a disponibilidade e organização dos materiais.</t>
+  </si>
+  <si>
+    <t>https://servidor-estaticos-teal-ten.vercel.app/Aiume%20Freitas%20Ferreira.png</t>
+  </si>
+  <si>
     <t>É uma profissional com vasta experiência na área de produção industrial, tendo recentemente sido promovido do setor de Acabamento para o Controle de Qualidade, onde tem desempenhado um papel crucial na melhoria dos processos de controle de qualidade.
-Formado em Metrologia pelo SENAI, Aiume possui habilidades sólidas no manuseio de instrumentos de medição de alta precisão, como paquímetros, micrômetros e relógios comparadores. Essa formação técnica é fundamental para garantir a qualidade dos produtos e a conformidade com as normas técnicas.
+Formada em Metrologia pelo SENAI, Aiume possui habilidades sólidas no manuseio de instrumentos de medição de alta precisão, como paquímetros, micrômetros e relógios comparadores. Essa formação técnica é fundamental para garantir a qualidade dos produtos e a conformidade com as normas técnicas.
 Ao longo da sua carreira, tem se destacado pela atenção aos detalhes e pela capacidade de adaptação em novos desafios, com um foco contínuo em assegurar que todos os processos estejam dentro dos mais altos padrões de qualidade.
 Atualmente, ele está se aprofundando em metodologias de controle de qualidade e ferramentas de medição avançada, trazendo inovação e excelência para a empresa.</t>
   </si>
   <si>
-    <t>Profissional com mais de 5 anos de experiência em setores operacionais, com uma sólida trajetória que abrange cargos de Atendente, Auxiliar Geral e, mais recentemente, Almoxarife Jr. Após atuar no setor de Expedição, onde desenvolveu habilidades logísticas e operacionais, Christopher foi promovido para o Almoxarifado, assumindo responsabilidades mais complexas na organização e controle de estoque.
-Atualmente, está se aprofundando nas rotinas do almoxarifado, onde utiliza suas competências em controle de estoque para garantir a disponibilidade e organização dos materiais.</t>
+    <t>https://www.linkedin.com/in/douglas-pereira-582333357/</t>
+  </si>
+  <si>
+    <t>Douglas Pereira Siqueira é um profissional em ascensão na área industrial, com trajetória sólida no setor de Expedição e, atualmente, desempenhando um papel estratégico na Gestão da Qualidade da Bras-Mol Molas &amp; Estampados Ltda.
+Após sua transição para o SGQ, Douglas tem contribuído de forma ativa para o aprimoramento dos processos de controle, registros e conformidade, participando diretamente de auditorias internas e promovendo uma cultura de qualidade na organização. Sua atuação integra o programa de Job Rotation, demonstrando não apenas capacidade técnica, mas também versatilidade e visão sistêmica dos processos.
+Atualmente, cursa o Superior em Gestão da Qualidade pela UMC, e busca constantemente o aperfeiçoamento técnico, tendo concluído diversos cursos relevantes, como:
+Fundamentos da Gestão da Qualidade – FM2S
+Fundamentos da Gestão Logística – FM2S
+Auditor Interno ISO 9001:2015 – FM2S
+Auditor Interno do SGI (ISO 9001, ISO 14001 e ISO 45001) – Udemy
+RNC 4.0 – Gestão Eficiente de Não Conformidades – FM2S
+Essas formações ampliam sua capacidade de análise, padronização e avaliação de processos, alinhando-se aos requisitos normativos e de melhoria contínua.
+Na avaliação de desempenho realizada em fevereiro de 2025, Douglas alcançou 93% de aproveitamento, sendo classificado como Ótimo. Destacou-se nos critérios de comprometimento, disciplina, trabalho em equipe, comunicação e assiduidade, além de demonstrar um perfil analítico muito bom, conforme relato de seu gestor direto.
+Douglas é reconhecido por sua responsabilidade, postura ética e capacidade de adaptação frente a novos desafios. Com foco na excelência e aprendizado contínuo, vem se consolidando como um profissional essencial para o fortalecimento dos processos de qualidade da empresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaine Nascimento Araujo Alves é uma profissional comprometida e em constante evolução na área comercial, com uma sólida formação acadêmica e destacada participação em projetos de desenvolvimento pessoal e profissional. Atualmente, exerce a função de Assistente Comercial, demonstrando excelência em suas atividades e grande potencial de crescimento.
+Graduada em Tecnologia em Gestão Comercial pela Fatec Itaquaquecetuba, Elaine se diferencia pelo seu perfil analítico, capacidade de organização e comunicação eficaz, atributos que têm contribuído significativamente para os resultados do setor comercial da empresa. Sua graduação foi concluída em fevereiro de 2024, evidenciando seu comprometimento com a formação técnica e excelência acadêmica.
+Elaine também se destaca por sua dedicação ao aprendizado contínuo, tendo concluído diversos cursos que fortalecem sua atuação profissional, entre eles:
+Gestão do Tempo – Centro Paula Souza (2021)
+Noções de Contabilidade – Senai (2021)
+Como Desenvolver Produtos e Modelos de Negócios Inovadores – Sebrae (2021)
+Turismo, Hotelaria e Informática – Quality (216h)
+Projeto Colaborativo Internacional (PCI) – Fatec Itaquaquecetuba em parceria com a Symbiosis International University – Índia (2022)
+Neste projeto internacional, Elaine participou ativamente de um estudo comparativo sobre o uso das Fintechs no Brasil e na Índia, colaborando em inglês e demonstrando sua habilidade de comunicação em contextos multiculturais e acadêmicos.
+Na avaliação de desempenho realizada em fevereiro de 2025, Elaine obteve 95% de aproveitamento, sendo classificada como Ótima. Destacou-se nos critérios de trabalho em equipe, comprometimento, iniciativa e disciplina, sendo reconhecida por sua postura proativa e profissionalismo no ambiente de trabalho.
+Elaine é uma profissional dedicada, ética e resiliente, com grande capacidade de adaptação e aprendizado. Seu perfil multidisciplinar e seu engajamento contínuo a posicionam como um talento valioso para a empresa, com potencial para assumir desafios cada vez maiores no âmbito organizacional.
+</t>
+  </si>
+  <si>
+    <t>Filomena Martins Pereira é uma profissional dedicada, com sólida experiência na área de serviços gerais, atualmente exercendo a função de Auxiliar de Limpeza na Bras-Mol Molas &amp; Estampados Ltda. Sua atuação é marcada pelo comprometimento, zelo e disciplina, sendo reconhecida por sua postura ética e responsabilidade no ambiente industrial.
+Filomena se destaca por sua assiduidade, dedicação e relacionamento interpessoal, sendo uma colaboradora que inspira confiança e respeito por parte da equipe e da liderança. Sua experiência acumulada no setor de limpeza industrial é refletida na excelência com que realiza suas tarefas, contribuindo para a manutenção de ambientes organizados, seguros e em conformidade com os padrões da empresa.
+Com uma trajetória construída com base no esforço, ética e aprendizado contínuo, Filomena representa um exemplo de profissional que, mesmo diante de desafios, supera expectativas e agrega valor ao time da Bras-Mol. Sua atuação reforça a importância do reconhecimento por mérito e experiência prática no ambiente corporativo.</t>
+  </si>
+  <si>
+    <t>Gabriel Lima dos Santos é um profissional promissor na área industrial, com formação sólida em Gestão da Produção Industrial e um perfil marcado pela busca contínua por conhecimento, excelência técnica e crescimento profissional. Recém-formado pela Fatec Ferraz de Vasconcelos, Gabriel tem ampliado sua atuação por meio de capacitações estratégicas e experiências enriquecedoras, tanto no Brasil quanto no exterior.
+Graduado em abril de 2024, Gabriel concluiu todas as disciplinas do curso superior em Tecnologia em Gestão da Produção Industrial com bom desempenho, demonstrando domínio sobre processos produtivos, planejamento e controle da produção, eficiência operacional e melhoria contínua.
+Seu portfólio de cursos complementares é robusto e alinhado com as exigências do setor, incluindo:
+Planejamento e Controle da Produção (PCP) – 80 horas
+Capacitação em Lean Manufacturing – 14 horas
+Gestão de Pessoas (MOOC – Centro Paula Souza) – 30 horas
+Microsoft Excel 2016 – Intermediário – Fundação Bradesco – 20 horas
+Curso de Inglês – ILSC Toronto (Canadá) – 4 semanas, nível B3 (Foundation B1-B2 e Grammar Beginner 1 &amp; 2)
+A formação em Lean Manufacturing contribuiu para seu entendimento prático de metodologias enxutas, incluindo ferramentas como Kanban, 5S, TPM, MRP, JIT, VSM e conceitos de Kaizen. Já o curso internacional de inglês na ILSC Toronto demonstrou sua capacidade de adaptação a novos contextos, com 100% de frequência e desempenho satisfatório em nível B3.
+Gabriel tem se destacado por seu perfil analítico, senso de organização, domínio de ferramentas tecnológicas e facilidade de comunicação. Sua vivência internacional fortaleceu ainda mais sua habilidade em atuar em equipes multiculturais, agregar ideias e pensar de forma estratégica.
+Com dedicação, ética e foco em resultados, Gabriel vem se consolidando como um profissional com alto potencial de crescimento, preparado para contribuir significativamente com a melhoria dos processos, a gestão da produção e os objetivos estratégicos da empresa.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/gerson-rodrigues-16402985/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/izael-salviano-42a0ab25/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/liliane-souza-069007213/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/renata-wane-16385945/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/valdinei-ramos-da-silva-10a344241/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael Almeida é um profissional experiente e em constante evolução na área de Tecnologia da Informação, com sólida base técnica e foco em soluções inovadoras, automação de processos e infraestrutura de redes e sistemas. É tecnólogo em Redes de Computadores pela Universidade Nove de Julho (UNINOVE), formado em  2012, e atualmente está em fase final da graduação em Engenharia da Computação, com término previsto para dezembro de 2025.
+Atuando como Supervisor de TI na Bras-mol Molas e Estampados Ltda., Rafael lidera projetos estratégicos nas áreas de infraestrutura, desenvolvimento de sistemas, automação de processos e análise de dados. Seu trabalho é guiado por metodologias ágeis, com entregas contínuas, foco em eficiência operacional e alinhamento com os objetivos corporativos.
+Com ampla experiência em ambientes Linux e Windows Server, Rafael domina tecnologias como roteadores, switches, firewalls, VPNs, VMware, Hyper-V, AWS, Azure, além de ferramentas de desenvolvimento como Python, PowerShell, Django, React, PostgreSQL, Java e Power BI. Ele é responsável por automatizar processos críticos, reduzir custos operacionais e implementar soluções de monitoramento e segurança com alto impacto.
+Entre suas certificações estão:
+Gestão da Mudança – PUCRS
+Lean Manufacturing – FM2S
+Impacto da TI nos Negócios – FGV
+Power BI e DAX
+ITIL
+LGPD
+BPM
+MCSA Windows Server 2012
+Rafael se destaca por sua postura proativa, pensamento estratégico, habilidade em liderar equipes técnicas e sua capacidade de transformar demandas em soluções concretas. Com forte senso de responsabilidade e espírito de dono, está preparado para contribuir com projetos desafiadores e com a transformação digital das empresas em que atua.
+</t>
   </si>
 </sst>
 </file>
@@ -490,9 +558,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -511,6 +578,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -827,598 +906,611 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C900014C-14C8-4838-8849-A03641E53F4B}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="29.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="88.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="8">
+        <v>145</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>138</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
+        <v>137</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8">
+        <v>132</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8">
+        <v>140</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B7" s="8">
+        <v>117</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8">
+        <v>115</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="8">
+        <v>126</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8">
+        <v>127</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="8">
+        <v>115</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="8">
+        <v>141</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="8">
+        <v>154</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="8">
+        <v>120</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="8">
+        <v>113</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="8">
+        <v>128</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="8">
+        <v>121</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="8">
+        <v>131</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>114</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="8">
+        <v>135</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="8">
+        <v>117</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="8">
+        <v>118</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="8">
+        <v>139</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="8">
+        <v>147</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B25" s="8">
+        <v>130</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="225" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="3">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="8">
+        <v>111</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="8">
         <v>145</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>138</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="G27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3">
-        <v>132</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>140</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7">
-        <v>117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>115</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9">
-        <v>126</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>127</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
-        <v>115</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>141</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13">
-        <v>154</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15">
-        <v>113</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16">
-        <v>128</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17">
-        <v>121</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18">
-        <v>111</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19">
-        <v>131</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20">
-        <v>114</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21">
-        <v>135</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22">
-        <v>117</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23">
-        <v>118</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="3">
-        <v>139</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25">
-        <v>147</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26">
-        <v>130</v>
-      </c>
-      <c r="C26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27">
-        <v>111</v>
-      </c>
-      <c r="C27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28">
-        <v>145</v>
-      </c>
-      <c r="C28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F26" xr:uid="{C900014C-14C8-4838-8849-A03641E53F4B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
-      <sortCondition ref="A1:A26"/>
+  <autoFilter ref="A1:F25" xr:uid="{C900014C-14C8-4838-8849-A03641E53F4B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
+      <sortCondition ref="A1:A25"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -1445,35 +1537,40 @@
     <hyperlink ref="F16" r:id="rId21" xr:uid="{1CBF6B7D-F8CC-414D-A08D-963F86FCF154}"/>
     <hyperlink ref="F17" r:id="rId22" xr:uid="{DB962BA9-C20F-4D9C-9E3F-5B8FB8DB9C50}"/>
     <hyperlink ref="E17" r:id="rId23" xr:uid="{56E1324E-1283-4C86-88C5-39D7C2E7E18E}"/>
-    <hyperlink ref="E19" r:id="rId24" xr:uid="{6C25687E-59DD-4AD8-8DED-B57E3370F478}"/>
-    <hyperlink ref="F19" r:id="rId25" xr:uid="{5EB6A491-6932-4244-80A6-8932A90C8C2D}"/>
-    <hyperlink ref="E20" r:id="rId26" xr:uid="{33C62798-3902-4381-AF7F-D52EA1735BDF}"/>
-    <hyperlink ref="F20" r:id="rId27" xr:uid="{5402F469-AAA0-47CE-98A3-3A3702BE2533}"/>
-    <hyperlink ref="E21" r:id="rId28" xr:uid="{F7001A1F-E6A6-4FF7-8229-1768BC34202A}"/>
-    <hyperlink ref="F21" r:id="rId29" xr:uid="{0E37CBC2-3F46-4C7D-BFCE-BA161B82EEEF}"/>
-    <hyperlink ref="E22" r:id="rId30" xr:uid="{3A614AC7-A418-4D05-9D6E-131F8051C85C}"/>
-    <hyperlink ref="F22" r:id="rId31" xr:uid="{305353EA-88E1-411A-AAED-D15872793A1B}"/>
-    <hyperlink ref="E23" r:id="rId32" xr:uid="{47750F49-BBBA-426E-9AEB-FAA74663AA50}"/>
-    <hyperlink ref="F23" r:id="rId33" xr:uid="{88D9947E-3193-40D4-B039-2D20AC904B8B}"/>
-    <hyperlink ref="F27" r:id="rId34" xr:uid="{572392B9-9359-4BD0-88A9-A54028FBA06C}"/>
-    <hyperlink ref="F18" r:id="rId35" xr:uid="{B3BEEF97-5FF4-4685-A32A-0560E55D99BD}"/>
-    <hyperlink ref="E24" r:id="rId36" xr:uid="{9872AE2B-7D2E-48FD-8144-246F095810A8}"/>
-    <hyperlink ref="F24" r:id="rId37" xr:uid="{971C9123-0B1A-44B1-9E93-EBCDB15BB1C3}"/>
-    <hyperlink ref="E25" r:id="rId38" xr:uid="{8FA3B366-19B9-4E84-9CA7-5FA310A37CD2}"/>
-    <hyperlink ref="F25" r:id="rId39" xr:uid="{F74AF90C-8DCA-48BE-A77E-6F7E8469AC4E}"/>
-    <hyperlink ref="E28" r:id="rId40" xr:uid="{B42644BC-A94C-467A-B0E6-611C15657B88}"/>
-    <hyperlink ref="F28" r:id="rId41" xr:uid="{F8B5C0C4-43CA-4BC2-BE06-EDA7909FECD4}"/>
-    <hyperlink ref="F26" r:id="rId42" xr:uid="{59EDB2A5-1A1E-4F75-BD5A-1081A001173D}"/>
-    <hyperlink ref="E2" r:id="rId43" xr:uid="{79578A44-1938-4C7E-988B-EFB98C810BD5}"/>
-    <hyperlink ref="F2" r:id="rId44" xr:uid="{00ECDD57-2540-4FA1-A381-08FF55FA83EF}"/>
-    <hyperlink ref="E7" r:id="rId45" xr:uid="{C114CFCC-6D82-413F-819F-1EDA67E0910A}"/>
-    <hyperlink ref="F7" r:id="rId46" xr:uid="{A484D214-DAC7-4BD3-B31F-0750843CF374}"/>
-    <hyperlink ref="E14" r:id="rId47" xr:uid="{DDA1AF5D-ACDF-433A-8BD3-4D814E2618E0}"/>
-    <hyperlink ref="E9" r:id="rId48" xr:uid="{91A7B212-F61A-4001-8B0E-4D95918FCF47}"/>
-    <hyperlink ref="F9" r:id="rId49" xr:uid="{487A1BAA-2AB3-44FE-B188-20C6D73F4F34}"/>
-    <hyperlink ref="F14" r:id="rId50" xr:uid="{8DAD4A55-75BE-4828-8D8B-D161768AF528}"/>
-    <hyperlink ref="G24" r:id="rId51" xr:uid="{F2C9DC16-5A15-40AB-AEB3-E617128F4E75}"/>
-    <hyperlink ref="G4" r:id="rId52" xr:uid="{4F1ACAF8-C7AB-4BB6-A462-96C6CB5B23DD}"/>
+    <hyperlink ref="E18" r:id="rId24" xr:uid="{6C25687E-59DD-4AD8-8DED-B57E3370F478}"/>
+    <hyperlink ref="F18" r:id="rId25" xr:uid="{5EB6A491-6932-4244-80A6-8932A90C8C2D}"/>
+    <hyperlink ref="E19" r:id="rId26" xr:uid="{33C62798-3902-4381-AF7F-D52EA1735BDF}"/>
+    <hyperlink ref="F19" r:id="rId27" xr:uid="{5402F469-AAA0-47CE-98A3-3A3702BE2533}"/>
+    <hyperlink ref="E20" r:id="rId28" xr:uid="{F7001A1F-E6A6-4FF7-8229-1768BC34202A}"/>
+    <hyperlink ref="F20" r:id="rId29" xr:uid="{0E37CBC2-3F46-4C7D-BFCE-BA161B82EEEF}"/>
+    <hyperlink ref="E21" r:id="rId30" xr:uid="{3A614AC7-A418-4D05-9D6E-131F8051C85C}"/>
+    <hyperlink ref="F21" r:id="rId31" xr:uid="{305353EA-88E1-411A-AAED-D15872793A1B}"/>
+    <hyperlink ref="E22" r:id="rId32" xr:uid="{47750F49-BBBA-426E-9AEB-FAA74663AA50}"/>
+    <hyperlink ref="F22" r:id="rId33" xr:uid="{88D9947E-3193-40D4-B039-2D20AC904B8B}"/>
+    <hyperlink ref="F26" r:id="rId34" xr:uid="{572392B9-9359-4BD0-88A9-A54028FBA06C}"/>
+    <hyperlink ref="E23" r:id="rId35" xr:uid="{9872AE2B-7D2E-48FD-8144-246F095810A8}"/>
+    <hyperlink ref="F23" r:id="rId36" xr:uid="{971C9123-0B1A-44B1-9E93-EBCDB15BB1C3}"/>
+    <hyperlink ref="E24" r:id="rId37" xr:uid="{8FA3B366-19B9-4E84-9CA7-5FA310A37CD2}"/>
+    <hyperlink ref="F24" r:id="rId38" xr:uid="{F74AF90C-8DCA-48BE-A77E-6F7E8469AC4E}"/>
+    <hyperlink ref="E27" r:id="rId39" xr:uid="{B42644BC-A94C-467A-B0E6-611C15657B88}"/>
+    <hyperlink ref="F27" r:id="rId40" xr:uid="{F8B5C0C4-43CA-4BC2-BE06-EDA7909FECD4}"/>
+    <hyperlink ref="F25" r:id="rId41" xr:uid="{59EDB2A5-1A1E-4F75-BD5A-1081A001173D}"/>
+    <hyperlink ref="E2" r:id="rId42" xr:uid="{79578A44-1938-4C7E-988B-EFB98C810BD5}"/>
+    <hyperlink ref="F2" r:id="rId43" xr:uid="{00ECDD57-2540-4FA1-A381-08FF55FA83EF}"/>
+    <hyperlink ref="E7" r:id="rId44" xr:uid="{C114CFCC-6D82-413F-819F-1EDA67E0910A}"/>
+    <hyperlink ref="F7" r:id="rId45" xr:uid="{A484D214-DAC7-4BD3-B31F-0750843CF374}"/>
+    <hyperlink ref="E14" r:id="rId46" xr:uid="{DDA1AF5D-ACDF-433A-8BD3-4D814E2618E0}"/>
+    <hyperlink ref="E9" r:id="rId47" xr:uid="{91A7B212-F61A-4001-8B0E-4D95918FCF47}"/>
+    <hyperlink ref="F9" r:id="rId48" xr:uid="{487A1BAA-2AB3-44FE-B188-20C6D73F4F34}"/>
+    <hyperlink ref="F14" r:id="rId49" xr:uid="{8DAD4A55-75BE-4828-8D8B-D161768AF528}"/>
+    <hyperlink ref="G23" r:id="rId50" xr:uid="{F2C9DC16-5A15-40AB-AEB3-E617128F4E75}"/>
+    <hyperlink ref="G4" r:id="rId51" xr:uid="{4F1ACAF8-C7AB-4BB6-A462-96C6CB5B23DD}"/>
+    <hyperlink ref="G7" r:id="rId52" xr:uid="{C0D1A826-3D96-4782-9561-7CE202DEEE42}"/>
+    <hyperlink ref="G12" r:id="rId53" xr:uid="{F56771A6-E72F-4BBC-9BAD-5D145963742B}"/>
+    <hyperlink ref="G13" r:id="rId54" xr:uid="{EF9F0430-E6A7-41C2-A29C-8E7511B2F69D}"/>
+    <hyperlink ref="G16" r:id="rId55" xr:uid="{1A47F4A6-144E-4429-852F-437871F98461}"/>
+    <hyperlink ref="G24" r:id="rId56" xr:uid="{ECFD5E98-13F4-4D96-AA3A-7BAB0F3B1377}"/>
+    <hyperlink ref="G27" r:id="rId57" xr:uid="{388D2DE1-3D7C-46D9-AD93-5A1453686546}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
